--- a/public/download/aFAX.xlsx
+++ b/public/download/aFAX.xlsx
@@ -22,13 +22,13 @@
     <t>FAX MAIL</t>
   </si>
   <si>
-    <t>{fax_sender}</t>
-  </si>
-  <si>
-    <t>replaced_string1　御中</t>
-  </si>
-  <si>
-    <t>FAX番号：{fax_number}　　　　　　　　　{number_of_documents_sent}枚</t>
+    <t>$fax_sender</t>
+  </si>
+  <si>
+    <t>1　御中</t>
+  </si>
+  <si>
+    <t>FAX番号：$fax_number　　　　　　　　　$number_of_documents_sent枚</t>
   </si>
   <si>
     <t>医療法人　新産健会　ひがし在宅クリニック</t>
@@ -37,16 +37,16 @@
     <t>〒065-0026　札幌市東区北26条東6丁目1-2</t>
   </si>
   <si>
-    <t>TEL：{phone_number}</t>
-  </si>
-  <si>
-    <t>FAX： {fax_number}</t>
+    <t>TEL：$phone_number</t>
+  </si>
+  <si>
+    <t>FAX： $fax_number</t>
   </si>
   <si>
     <t>いつも大変お世話になっております。</t>
   </si>
   <si>
-    <t>replaced_string1の{last_name}　{first_name}様の</t>
+    <t>1の$last_name　$first_name様の</t>
   </si>
   <si>
     <t>検査開始時間ですが下記のようになります。</t>
@@ -134,6 +134,24 @@
       <name val="メイリオ"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="メイリオ"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="メイリオ"/>
+    </font>
+    <font>
       <b val="1"/>
       <i val="0"/>
       <strike val="0"/>
@@ -148,24 +166,6 @@
       <strike val="0"/>
       <u val="none"/>
       <sz val="22"/>
-      <color rgb="FF000000"/>
-      <name val="メイリオ"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="メイリオ"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
     </font>
@@ -270,6 +270,24 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -279,24 +297,6 @@
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
@@ -322,40 +322,10 @@
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -364,7 +334,7 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -372,6 +342,36 @@
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="12" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -674,8 +674,8 @@
   </sheetPr>
   <dimension ref="A1:AD44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1" topLeftCell="A4">
+      <selection activeCell="C27" sqref="C27:AA27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="2.625" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -746,30 +746,30 @@
     </row>
     <row r="2" spans="1:30" customHeight="1" ht="30.75">
       <c r="A2"/>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
       <c r="X2" s="1" t="s">
         <v>1</v>
       </c>
@@ -782,429 +782,429 @@
     </row>
     <row r="3" spans="1:30" customHeight="1" ht="4.5">
       <c r="A3"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="30"/>
+      <c r="Z3" s="30"/>
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="30"/>
       <c r="AC3"/>
       <c r="AD3"/>
     </row>
     <row r="4" spans="1:30">
       <c r="A4" s="2"/>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="16"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
     </row>
     <row r="5" spans="1:30" customHeight="1" ht="4.5">
       <c r="A5"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
       <c r="AC5"/>
       <c r="AD5"/>
     </row>
     <row r="6" spans="1:30" customHeight="1" ht="4.5">
       <c r="A6"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="18"/>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="18"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+      <c r="S6" s="31"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="31"/>
+      <c r="V6" s="31"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="31"/>
+      <c r="Y6" s="31"/>
+      <c r="Z6" s="31"/>
+      <c r="AA6" s="31"/>
+      <c r="AB6" s="31"/>
       <c r="AC6"/>
       <c r="AD6"/>
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="2"/>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="32"/>
+      <c r="AA7" s="32"/>
+      <c r="AB7" s="32"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
     </row>
     <row r="8" spans="1:30" customHeight="1" ht="4.5">
       <c r="A8"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="20"/>
-      <c r="AB8" s="20"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="33"/>
       <c r="AC8"/>
       <c r="AD8"/>
     </row>
     <row r="9" spans="1:30">
       <c r="A9" s="2"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="21"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="34"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
     </row>
     <row r="10" spans="1:30" customHeight="1" ht="22.5">
       <c r="A10"/>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="22"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="35"/>
+      <c r="AB10" s="35"/>
       <c r="AC10"/>
       <c r="AD10"/>
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="2"/>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="13"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="28"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="2"/>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="28"/>
+      <c r="AA12" s="28"/>
+      <c r="AB12" s="28"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="2"/>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="28"/>
+      <c r="W13" s="28"/>
+      <c r="X13" s="28"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="28"/>
+      <c r="AA13" s="28"/>
+      <c r="AB13" s="28"/>
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="2"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="23"/>
-      <c r="AB14" s="23"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
     </row>
     <row r="15" spans="1:30" customHeight="1" ht="4.5">
       <c r="A15"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="24"/>
-      <c r="AA15" s="24"/>
-      <c r="AB15" s="24"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27"/>
+      <c r="AB15" s="27"/>
       <c r="AC15"/>
       <c r="AD15"/>
     </row>
@@ -1476,66 +1476,66 @@
     </row>
     <row r="24" spans="1:30" customHeight="1" ht="6">
       <c r="A24"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
-      <c r="X24" s="17"/>
-      <c r="Y24" s="17"/>
-      <c r="Z24" s="17"/>
-      <c r="AA24" s="17"/>
-      <c r="AB24" s="17"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14"/>
       <c r="AC24"/>
       <c r="AD24"/>
     </row>
     <row r="25" spans="1:30" customHeight="1" ht="22.5">
       <c r="A25"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="34"/>
-      <c r="T25" s="34"/>
-      <c r="U25" s="34"/>
-      <c r="V25" s="34"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="34"/>
-      <c r="Y25" s="34"/>
-      <c r="Z25" s="34"/>
-      <c r="AA25" s="34"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="20"/>
       <c r="AB25" s="4"/>
       <c r="AC25"/>
       <c r="AD25"/>
@@ -1543,31 +1543,31 @@
     <row r="26" spans="1:30" customHeight="1" ht="6">
       <c r="A26"/>
       <c r="B26" s="5"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
-      <c r="U26" s="35"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="35"/>
-      <c r="X26" s="35"/>
-      <c r="Y26" s="35"/>
-      <c r="Z26" s="35"/>
-      <c r="AA26" s="35"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="21"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="21"/>
+      <c r="AA26" s="21"/>
       <c r="AB26" s="6"/>
       <c r="AC26"/>
       <c r="AD26"/>
@@ -1575,33 +1575,33 @@
     <row r="27" spans="1:30">
       <c r="A27" s="2"/>
       <c r="B27" s="7"/>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="16"/>
-      <c r="Y27" s="16"/>
-      <c r="Z27" s="16"/>
-      <c r="AA27" s="16"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="22"/>
+      <c r="AA27" s="22"/>
       <c r="AB27" s="8"/>
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
@@ -1609,31 +1609,31 @@
     <row r="28" spans="1:30">
       <c r="A28" s="2"/>
       <c r="B28" s="7"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="26"/>
-      <c r="V28" s="26"/>
-      <c r="W28" s="26"/>
-      <c r="X28" s="26"/>
-      <c r="Y28" s="26"/>
-      <c r="Z28" s="26"/>
-      <c r="AA28" s="26"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="23"/>
       <c r="AB28" s="8"/>
       <c r="AC28" s="2"/>
       <c r="AD28" s="2"/>
@@ -1641,33 +1641,33 @@
     <row r="29" spans="1:30">
       <c r="A29" s="2"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="27"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="S29" s="27"/>
-      <c r="T29" s="27"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="27"/>
-      <c r="W29" s="27"/>
-      <c r="X29" s="27"/>
-      <c r="Y29" s="27"/>
-      <c r="Z29" s="27"/>
-      <c r="AA29" s="27"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
+      <c r="U29" s="24"/>
+      <c r="V29" s="24"/>
+      <c r="W29" s="24"/>
+      <c r="X29" s="24"/>
+      <c r="Y29" s="24"/>
+      <c r="Z29" s="24"/>
+      <c r="AA29" s="24"/>
       <c r="AB29" s="8"/>
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
@@ -1675,33 +1675,33 @@
     <row r="30" spans="1:30">
       <c r="A30" s="2"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="27"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="27"/>
-      <c r="W30" s="27"/>
-      <c r="X30" s="27"/>
-      <c r="Y30" s="27"/>
-      <c r="Z30" s="27"/>
-      <c r="AA30" s="27"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="24"/>
+      <c r="U30" s="24"/>
+      <c r="V30" s="24"/>
+      <c r="W30" s="24"/>
+      <c r="X30" s="24"/>
+      <c r="Y30" s="24"/>
+      <c r="Z30" s="24"/>
+      <c r="AA30" s="24"/>
       <c r="AB30" s="8"/>
       <c r="AC30" s="2"/>
       <c r="AD30" s="2"/>
@@ -1709,33 +1709,33 @@
     <row r="31" spans="1:30">
       <c r="A31" s="2"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="33"/>
-      <c r="V31" s="33"/>
-      <c r="W31" s="33"/>
-      <c r="X31" s="33"/>
-      <c r="Y31" s="33"/>
-      <c r="Z31" s="33"/>
-      <c r="AA31" s="33"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19"/>
+      <c r="Z31" s="19"/>
+      <c r="AA31" s="19"/>
       <c r="AB31" s="8"/>
       <c r="AC31" s="2"/>
       <c r="AD31" s="2"/>
@@ -1743,33 +1743,33 @@
     <row r="32" spans="1:30" customHeight="1" ht="19.5">
       <c r="A32"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="30" t="s">
+      <c r="C32" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="30"/>
-      <c r="S32" s="30"/>
-      <c r="T32" s="30"/>
-      <c r="U32" s="30"/>
-      <c r="V32" s="30"/>
-      <c r="W32" s="30"/>
-      <c r="X32" s="30"/>
-      <c r="Y32" s="30"/>
-      <c r="Z32" s="30"/>
-      <c r="AA32" s="30"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="16"/>
+      <c r="AA32" s="16"/>
       <c r="AB32" s="8"/>
       <c r="AC32"/>
       <c r="AD32"/>
@@ -1777,31 +1777,31 @@
     <row r="33" spans="1:30" customHeight="1" ht="19.5">
       <c r="A33"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="30"/>
-      <c r="S33" s="30"/>
-      <c r="T33" s="30"/>
-      <c r="U33" s="30"/>
-      <c r="V33" s="30"/>
-      <c r="W33" s="30"/>
-      <c r="X33" s="30"/>
-      <c r="Y33" s="30"/>
-      <c r="Z33" s="30"/>
-      <c r="AA33" s="30"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="16"/>
+      <c r="AA33" s="16"/>
       <c r="AB33" s="8"/>
       <c r="AC33"/>
       <c r="AD33"/>
@@ -1809,31 +1809,31 @@
     <row r="34" spans="1:30" customHeight="1" ht="19.5">
       <c r="A34"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="29"/>
-      <c r="M34" s="29"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="29"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="29"/>
-      <c r="S34" s="29"/>
-      <c r="T34" s="29"/>
-      <c r="U34" s="29"/>
-      <c r="V34" s="29"/>
-      <c r="W34" s="29"/>
-      <c r="X34" s="29"/>
-      <c r="Y34" s="29"/>
-      <c r="Z34" s="29"/>
-      <c r="AA34" s="29"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="15"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="15"/>
+      <c r="T34" s="15"/>
+      <c r="U34" s="15"/>
+      <c r="V34" s="15"/>
+      <c r="W34" s="15"/>
+      <c r="X34" s="15"/>
+      <c r="Y34" s="15"/>
+      <c r="Z34" s="15"/>
+      <c r="AA34" s="15"/>
       <c r="AB34" s="8"/>
       <c r="AC34"/>
       <c r="AD34"/>
@@ -1841,31 +1841,31 @@
     <row r="35" spans="1:30" customHeight="1" ht="19.5">
       <c r="A35"/>
       <c r="B35" s="7"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="29"/>
-      <c r="M35" s="29"/>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="29"/>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="29"/>
-      <c r="S35" s="29"/>
-      <c r="T35" s="29"/>
-      <c r="U35" s="29"/>
-      <c r="V35" s="29"/>
-      <c r="W35" s="29"/>
-      <c r="X35" s="29"/>
-      <c r="Y35" s="29"/>
-      <c r="Z35" s="29"/>
-      <c r="AA35" s="29"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="15"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="15"/>
+      <c r="X35" s="15"/>
+      <c r="Y35" s="15"/>
+      <c r="Z35" s="15"/>
+      <c r="AA35" s="15"/>
       <c r="AB35" s="8"/>
       <c r="AC35"/>
       <c r="AD35"/>
@@ -1873,31 +1873,31 @@
     <row r="36" spans="1:30" customHeight="1" ht="19.5">
       <c r="A36"/>
       <c r="B36" s="7"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="30"/>
-      <c r="T36" s="30"/>
-      <c r="U36" s="30"/>
-      <c r="V36" s="30"/>
-      <c r="W36" s="30"/>
-      <c r="X36" s="30"/>
-      <c r="Y36" s="30"/>
-      <c r="Z36" s="30"/>
-      <c r="AA36" s="30"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="16"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="16"/>
+      <c r="W36" s="16"/>
+      <c r="X36" s="16"/>
+      <c r="Y36" s="16"/>
+      <c r="Z36" s="16"/>
+      <c r="AA36" s="16"/>
       <c r="AB36" s="8"/>
       <c r="AC36"/>
       <c r="AD36"/>
@@ -1905,31 +1905,31 @@
     <row r="37" spans="1:30" customHeight="1" ht="19.5">
       <c r="A37"/>
       <c r="B37" s="7"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="30"/>
-      <c r="S37" s="30"/>
-      <c r="T37" s="30"/>
-      <c r="U37" s="30"/>
-      <c r="V37" s="30"/>
-      <c r="W37" s="30"/>
-      <c r="X37" s="30"/>
-      <c r="Y37" s="30"/>
-      <c r="Z37" s="30"/>
-      <c r="AA37" s="30"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="16"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="16"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="16"/>
+      <c r="W37" s="16"/>
+      <c r="X37" s="16"/>
+      <c r="Y37" s="16"/>
+      <c r="Z37" s="16"/>
+      <c r="AA37" s="16"/>
       <c r="AB37" s="8"/>
       <c r="AC37"/>
       <c r="AD37"/>
@@ -1937,168 +1937,168 @@
     <row r="38" spans="1:30" customHeight="1" ht="20.25">
       <c r="A38"/>
       <c r="B38" s="9"/>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="31"/>
-      <c r="T38" s="31"/>
-      <c r="U38" s="31"/>
-      <c r="V38" s="31"/>
-      <c r="W38" s="31"/>
-      <c r="X38" s="31"/>
-      <c r="Y38" s="31"/>
-      <c r="Z38" s="31"/>
-      <c r="AA38" s="31"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
+      <c r="V38" s="17"/>
+      <c r="W38" s="17"/>
+      <c r="X38" s="17"/>
+      <c r="Y38" s="17"/>
+      <c r="Z38" s="17"/>
+      <c r="AA38" s="17"/>
       <c r="AB38" s="10"/>
       <c r="AC38"/>
       <c r="AD38"/>
     </row>
     <row r="39" spans="1:30" customHeight="1" ht="22.5">
       <c r="A39"/>
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="32"/>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="32"/>
-      <c r="R39" s="32"/>
-      <c r="S39" s="32"/>
-      <c r="T39" s="32"/>
-      <c r="U39" s="32"/>
-      <c r="V39" s="32"/>
-      <c r="W39" s="32"/>
-      <c r="X39" s="32"/>
-      <c r="Y39" s="32"/>
-      <c r="Z39" s="32"/>
-      <c r="AA39" s="32"/>
-      <c r="AB39" s="32"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="18"/>
+      <c r="W39" s="18"/>
+      <c r="X39" s="18"/>
+      <c r="Y39" s="18"/>
+      <c r="Z39" s="18"/>
+      <c r="AA39" s="18"/>
+      <c r="AB39" s="18"/>
       <c r="AC39"/>
       <c r="AD39"/>
     </row>
     <row r="40" spans="1:30" customHeight="1" ht="22.5">
       <c r="A40"/>
-      <c r="B40" s="28" t="s">
+      <c r="B40" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="28"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="28"/>
-      <c r="P40" s="28"/>
-      <c r="Q40" s="28"/>
-      <c r="R40" s="28"/>
-      <c r="S40" s="28"/>
-      <c r="T40" s="28"/>
-      <c r="U40" s="28"/>
-      <c r="V40" s="28"/>
-      <c r="W40" s="28"/>
-      <c r="X40" s="28"/>
-      <c r="Y40" s="28"/>
-      <c r="Z40" s="28"/>
-      <c r="AA40" s="28"/>
-      <c r="AB40" s="28"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="13"/>
+      <c r="V40" s="13"/>
+      <c r="W40" s="13"/>
+      <c r="X40" s="13"/>
+      <c r="Y40" s="13"/>
+      <c r="Z40" s="13"/>
+      <c r="AA40" s="13"/>
+      <c r="AB40" s="13"/>
       <c r="AC40"/>
       <c r="AD40"/>
     </row>
     <row r="41" spans="1:30" customHeight="1" ht="22.5">
       <c r="A41"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
-      <c r="P41" s="28"/>
-      <c r="Q41" s="28"/>
-      <c r="R41" s="28"/>
-      <c r="S41" s="28"/>
-      <c r="T41" s="28"/>
-      <c r="U41" s="28"/>
-      <c r="V41" s="28"/>
-      <c r="W41" s="28"/>
-      <c r="X41" s="28"/>
-      <c r="Y41" s="28"/>
-      <c r="Z41" s="28"/>
-      <c r="AA41" s="28"/>
-      <c r="AB41" s="28"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="13"/>
+      <c r="V41" s="13"/>
+      <c r="W41" s="13"/>
+      <c r="X41" s="13"/>
+      <c r="Y41" s="13"/>
+      <c r="Z41" s="13"/>
+      <c r="AA41" s="13"/>
+      <c r="AB41" s="13"/>
       <c r="AC41"/>
       <c r="AD41"/>
     </row>
     <row r="42" spans="1:30" customHeight="1" ht="22.5">
       <c r="A42"/>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
-      <c r="N42" s="28"/>
-      <c r="O42" s="28"/>
-      <c r="P42" s="28"/>
-      <c r="Q42" s="28"/>
-      <c r="R42" s="28"/>
-      <c r="S42" s="28"/>
-      <c r="T42" s="28"/>
-      <c r="U42" s="28"/>
-      <c r="V42" s="28"/>
-      <c r="W42" s="28"/>
-      <c r="X42" s="28"/>
-      <c r="Y42" s="28"/>
-      <c r="Z42" s="28"/>
-      <c r="AA42" s="28"/>
-      <c r="AB42" s="28"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="13"/>
+      <c r="S42" s="13"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="13"/>
+      <c r="W42" s="13"/>
+      <c r="X42" s="13"/>
+      <c r="Y42" s="13"/>
+      <c r="Z42" s="13"/>
+      <c r="AA42" s="13"/>
+      <c r="AB42" s="13"/>
       <c r="AC42"/>
       <c r="AD42"/>
     </row>
@@ -2170,6 +2170,31 @@
     </row>
   </sheetData>
   <mergeCells>
+    <mergeCell ref="B13:AB13"/>
+    <mergeCell ref="B2:W2"/>
+    <mergeCell ref="B3:AB3"/>
+    <mergeCell ref="B4:AB4"/>
+    <mergeCell ref="B5:AB5"/>
+    <mergeCell ref="B6:AB6"/>
+    <mergeCell ref="B7:AB7"/>
+    <mergeCell ref="B8:AB8"/>
+    <mergeCell ref="B9:AB9"/>
+    <mergeCell ref="B10:AB10"/>
+    <mergeCell ref="B11:AB11"/>
+    <mergeCell ref="B12:AB12"/>
+    <mergeCell ref="B14:AB14"/>
+    <mergeCell ref="B15:AB15"/>
+    <mergeCell ref="B16:AB16"/>
+    <mergeCell ref="B17:AB17"/>
+    <mergeCell ref="B18:AB18"/>
+    <mergeCell ref="C28:AA28"/>
+    <mergeCell ref="C29:AA29"/>
+    <mergeCell ref="C30:AA30"/>
+    <mergeCell ref="B19:AB19"/>
+    <mergeCell ref="B20:AB20"/>
+    <mergeCell ref="B21:AB21"/>
+    <mergeCell ref="B22:AB22"/>
+    <mergeCell ref="B23:AB23"/>
     <mergeCell ref="B40:AB40"/>
     <mergeCell ref="B41:AB41"/>
     <mergeCell ref="B42:AB42"/>
@@ -2186,31 +2211,6 @@
     <mergeCell ref="C25:AA25"/>
     <mergeCell ref="C26:AA26"/>
     <mergeCell ref="C27:AA27"/>
-    <mergeCell ref="C28:AA28"/>
-    <mergeCell ref="C29:AA29"/>
-    <mergeCell ref="C30:AA30"/>
-    <mergeCell ref="B19:AB19"/>
-    <mergeCell ref="B20:AB20"/>
-    <mergeCell ref="B21:AB21"/>
-    <mergeCell ref="B22:AB22"/>
-    <mergeCell ref="B23:AB23"/>
-    <mergeCell ref="B14:AB14"/>
-    <mergeCell ref="B15:AB15"/>
-    <mergeCell ref="B16:AB16"/>
-    <mergeCell ref="B17:AB17"/>
-    <mergeCell ref="B18:AB18"/>
-    <mergeCell ref="B13:AB13"/>
-    <mergeCell ref="B2:W2"/>
-    <mergeCell ref="B3:AB3"/>
-    <mergeCell ref="B4:AB4"/>
-    <mergeCell ref="B5:AB5"/>
-    <mergeCell ref="B6:AB6"/>
-    <mergeCell ref="B7:AB7"/>
-    <mergeCell ref="B8:AB8"/>
-    <mergeCell ref="B9:AB9"/>
-    <mergeCell ref="B10:AB10"/>
-    <mergeCell ref="B11:AB11"/>
-    <mergeCell ref="B12:AB12"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true" horizontalCentered="true"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/public/download/aFAX.xlsx
+++ b/public/download/aFAX.xlsx
@@ -25,10 +25,10 @@
     <t>$fax_sender</t>
   </si>
   <si>
-    <t>1　御中</t>
-  </si>
-  <si>
-    <t>FAX番号：$fax_number　　　　　　　　　$number_of_documents_sent枚</t>
+    <t>2　御中</t>
+  </si>
+  <si>
+    <t>FAX番号：01:11　　　　　　　　　$number_of_documents_sent枚</t>
   </si>
   <si>
     <t>医療法人　新産健会　ひがし在宅クリニック</t>
@@ -40,13 +40,13 @@
     <t>TEL：$phone_number</t>
   </si>
   <si>
-    <t>FAX： $fax_number</t>
+    <t>FAX： 01:11</t>
   </si>
   <si>
     <t>いつも大変お世話になっております。</t>
   </si>
   <si>
-    <t>1の$last_name　$first_name様の</t>
+    <t>2の$last_name　$first_name様の</t>
   </si>
   <si>
     <t>検査開始時間ですが下記のようになります。</t>

--- a/public/download/aFAX.xlsx
+++ b/public/download/aFAX.xlsx
@@ -22,13 +22,13 @@
     <t>FAX MAIL</t>
   </si>
   <si>
-    <t>$fax_sender</t>
+    <t>01:11</t>
   </si>
   <si>
     <t>2　御中</t>
   </si>
   <si>
-    <t>FAX番号：01:11　　　　　　　　　$number_of_documents_sent枚</t>
+    <t>FAX番号：$fax_number　　　　　　　　　$number_of_documents_sent枚</t>
   </si>
   <si>
     <t>医療法人　新産健会　ひがし在宅クリニック</t>
@@ -40,7 +40,7 @@
     <t>TEL：$phone_number</t>
   </si>
   <si>
-    <t>FAX： 01:11</t>
+    <t>FAX： $fax_number</t>
   </si>
   <si>
     <t>いつも大変お世話になっております。</t>
